--- a/status.xlsx
+++ b/status.xlsx
@@ -124,7 +124,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -150,69 +150,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -520,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -549,46 +486,114 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW()-ROW($A$1)</f>
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A14" si="0">ROW()-ROW($A$1)</f>
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"CLOSE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"LATER-FIX"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"WONT-FIX"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PEND"</formula>
     </cfRule>
   </conditionalFormatting>
